--- a/tests/fixtures/orderforms/1508.31.tomte.xlsx
+++ b/tests/fixtures/orderforms/1508.31.tomte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A48A2422-3ED3-4349-8C8A-0AFD4B9075E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136517C-E7FE-294A-88A4-AC0DEAFFD8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29200" yWindow="-1020" windowWidth="28800" windowHeight="15980" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="747">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -5421,8 +5421,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B53" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13129,7 +13129,9 @@
       <c r="G15" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="70" t="s">
+        <v>84</v>
+      </c>
       <c r="I15" s="83" t="s">
         <v>74</v>
       </c>
@@ -14215,7 +14217,9 @@
       <c r="G16" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="70" t="s">
+        <v>84</v>
+      </c>
       <c r="I16" s="83" t="s">
         <v>85</v>
       </c>
@@ -15281,7 +15285,9 @@
       <c r="G17" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="70"/>
+      <c r="H17" s="70" t="s">
+        <v>84</v>
+      </c>
       <c r="I17" s="83" t="s">
         <v>95</v>
       </c>
@@ -16343,7 +16349,9 @@
       <c r="G18" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="70"/>
+      <c r="H18" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I18" s="83" t="s">
         <v>100</v>
       </c>
@@ -17405,7 +17413,9 @@
       <c r="G19" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I19" s="83" t="s">
         <v>106</v>
       </c>
@@ -18467,7 +18477,9 @@
       <c r="G20" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="70"/>
+      <c r="H20" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="83" t="s">
         <v>582</v>
       </c>
@@ -19529,7 +19541,9 @@
       <c r="G21" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="70"/>
+      <c r="H21" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="83" t="s">
         <v>111</v>
       </c>
@@ -20591,7 +20605,9 @@
       <c r="G22" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="70"/>
+      <c r="H22" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I22" s="83" t="s">
         <v>584</v>
       </c>
@@ -21653,7 +21669,9 @@
       <c r="G23" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="70"/>
+      <c r="H23" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="83" t="s">
         <v>583</v>
       </c>
@@ -22715,7 +22733,9 @@
       <c r="G24" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="70"/>
+      <c r="H24" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I24" s="83" t="s">
         <v>605</v>
       </c>
@@ -23777,7 +23797,9 @@
       <c r="G25" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="70"/>
+      <c r="H25" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I25" s="83" t="s">
         <v>119</v>
       </c>
@@ -24839,7 +24861,9 @@
       <c r="G26" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="70"/>
+      <c r="H26" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="83" t="s">
         <v>124</v>
       </c>
@@ -25901,7 +25925,9 @@
       <c r="G27" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="70"/>
+      <c r="H27" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I27" s="83" t="s">
         <v>580</v>
       </c>
@@ -25973,7 +25999,9 @@
       <c r="G28" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I28" s="83" t="s">
         <v>128</v>
       </c>
@@ -27035,7 +27063,9 @@
       <c r="G29" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="83" t="s">
         <v>133</v>
       </c>
@@ -28097,7 +28127,9 @@
       <c r="G30" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="70"/>
+      <c r="H30" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I30" s="83" t="s">
         <v>138</v>
       </c>
@@ -29159,7 +29191,9 @@
       <c r="G31" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="70"/>
+      <c r="H31" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I31" s="83" t="s">
         <v>142</v>
       </c>
@@ -30221,7 +30255,9 @@
       <c r="G32" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="70"/>
+      <c r="H32" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="83" t="s">
         <v>581</v>
       </c>
@@ -31283,7 +31319,9 @@
       <c r="G33" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="70"/>
+      <c r="H33" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I33" s="83" t="s">
         <v>147</v>
       </c>
@@ -32345,7 +32383,9 @@
       <c r="G34" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="70"/>
+      <c r="H34" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I34" s="83" t="s">
         <v>74</v>
       </c>
@@ -33407,7 +33447,9 @@
       <c r="G35" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="70"/>
+      <c r="H35" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="83" t="s">
         <v>85</v>
       </c>
@@ -34469,7 +34511,9 @@
       <c r="G36" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="70"/>
+      <c r="H36" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I36" s="83" t="s">
         <v>95</v>
       </c>
@@ -34541,7 +34585,9 @@
       <c r="G37" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="70"/>
+      <c r="H37" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I37" s="83" t="s">
         <v>100</v>
       </c>
@@ -34613,7 +34659,9 @@
       <c r="G38" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="70"/>
+      <c r="H38" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I38" s="83" t="s">
         <v>106</v>
       </c>
@@ -34685,7 +34733,9 @@
       <c r="G39" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="70"/>
+      <c r="H39" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I39" s="83" t="s">
         <v>582</v>
       </c>
@@ -35747,7 +35797,9 @@
       <c r="G40" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="70"/>
+      <c r="H40" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I40" s="83" t="s">
         <v>111</v>
       </c>
@@ -36809,7 +36861,9 @@
       <c r="G41" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H41" s="70"/>
+      <c r="H41" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="83" t="s">
         <v>584</v>
       </c>
@@ -37871,7 +37925,9 @@
       <c r="G42" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H42" s="70"/>
+      <c r="H42" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I42" s="83" t="s">
         <v>583</v>
       </c>
@@ -38933,7 +38989,9 @@
       <c r="G43" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H43" s="70"/>
+      <c r="H43" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I43" s="83" t="s">
         <v>605</v>
       </c>
@@ -39995,7 +40053,9 @@
       <c r="G44" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="70"/>
+      <c r="H44" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I44" s="83" t="s">
         <v>119</v>
       </c>
@@ -41057,7 +41117,9 @@
       <c r="G45" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H45" s="70"/>
+      <c r="H45" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I45" s="83" t="s">
         <v>124</v>
       </c>
@@ -42119,7 +42181,9 @@
       <c r="G46" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="70"/>
+      <c r="H46" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I46" s="83" t="s">
         <v>580</v>
       </c>
@@ -43181,7 +43245,9 @@
       <c r="G47" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="70"/>
+      <c r="H47" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I47" s="83" t="s">
         <v>128</v>
       </c>
@@ -44243,7 +44309,9 @@
       <c r="G48" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="70"/>
+      <c r="H48" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I48" s="83" t="s">
         <v>133</v>
       </c>
@@ -45305,7 +45373,9 @@
       <c r="G49" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H49" s="70"/>
+      <c r="H49" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I49" s="83" t="s">
         <v>138</v>
       </c>
@@ -46367,7 +46437,9 @@
       <c r="G50" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H50" s="70"/>
+      <c r="H50" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I50" s="83" t="s">
         <v>142</v>
       </c>
@@ -46439,7 +46511,9 @@
       <c r="G51" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H51" s="70"/>
+      <c r="H51" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I51" s="83" t="s">
         <v>581</v>
       </c>
@@ -47501,7 +47575,9 @@
       <c r="G52" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="70"/>
+      <c r="H52" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I52" s="83" t="s">
         <v>147</v>
       </c>
@@ -48563,7 +48639,9 @@
       <c r="G53" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H53" s="70"/>
+      <c r="H53" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I53" s="83" t="s">
         <v>74</v>
       </c>
@@ -49625,7 +49703,9 @@
       <c r="G54" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="70"/>
+      <c r="H54" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I54" s="83" t="s">
         <v>85</v>
       </c>
@@ -50687,7 +50767,9 @@
       <c r="G55" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H55" s="70"/>
+      <c r="H55" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I55" s="83" t="s">
         <v>95</v>
       </c>
@@ -51749,7 +51831,9 @@
       <c r="G56" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H56" s="70"/>
+      <c r="H56" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="I56" s="83" t="s">
         <v>100</v>
       </c>

--- a/tests/fixtures/orderforms/1508.31.tomte.xlsx
+++ b/tests/fixtures/orderforms/1508.31.tomte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136517C-E7FE-294A-88A4-AC0DEAFFD8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{178FE6EA-C259-F548-A259-802F661C3911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29200" yWindow="-1020" windowWidth="28800" windowHeight="15980" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="1680" windowWidth="28800" windowHeight="16240" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="description" localSheetId="2">'Drop down lists'!$D$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="749">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -2179,9 +2179,6 @@
     <t>canfam3</t>
   </si>
   <si>
-    <t>This information is required for Balsamic QC analysis</t>
-  </si>
-  <si>
     <t>UDF/Reference Genome Microbial</t>
   </si>
   <si>
@@ -2513,9 +2510,6 @@
     <t>## PANEL ANALYSIS, NO % READS GUARANTEED##</t>
   </si>
   <si>
-    <t xml:space="preserve">New Application tags: PAZKTTR020, PAZKTTR060, PAZKTTR100 (more info here: https://clinical.scilifelab.se/applications) </t>
-  </si>
-  <si>
     <t>No delivery</t>
   </si>
   <si>
@@ -2706,12 +2700,6 @@
       </rPr>
       <t>No delivery. Mainly used for in-house testning.</t>
     </r>
-  </si>
-  <si>
-    <t>fibroblasts</t>
-  </si>
-  <si>
-    <t>Added fibroblastas as option for Sample Source</t>
   </si>
   <si>
     <t>Tomte</t>
@@ -2979,121 +2967,394 @@
     </r>
   </si>
   <si>
+    <t>RNAPOAR400</t>
+  </si>
+  <si>
+    <t>New Application tags: PAZKTTR020, PAZKTTR060, PAZKTTR100 (more info here: https://clinical.scilifelab.se/applications) and RNAPOAR400</t>
+  </si>
+  <si>
+    <t>fibroblast</t>
+  </si>
+  <si>
+    <t>Added fibroblast as option for Sample Source</t>
+  </si>
+  <si>
+    <t>This information is required for Balsamic QC and Tomte analyses</t>
+  </si>
+  <si>
+    <t>tomtesample1</t>
+  </si>
+  <si>
+    <t>tomtecase1</t>
+  </si>
+  <si>
+    <t>tomtesubject1</t>
+  </si>
+  <si>
+    <t>tomtesample2</t>
+  </si>
+  <si>
+    <t>tomtesubject2</t>
+  </si>
+  <si>
+    <t>tomtesample3</t>
+  </si>
+  <si>
+    <t>tomtesubject3</t>
+  </si>
+  <si>
+    <t>tomtesample4</t>
+  </si>
+  <si>
     <t>miprnacase2</t>
+  </si>
+  <si>
+    <t>tomtesubject4</t>
+  </si>
+  <si>
+    <t>tomtesample5</t>
   </si>
   <si>
     <t>miprnacase3</t>
   </si>
   <si>
+    <t>tomtesubject5</t>
+  </si>
+  <si>
+    <t>tomtesample6</t>
+  </si>
+  <si>
     <t>miprnacase4</t>
+  </si>
+  <si>
+    <t>tomtesubject6</t>
+  </si>
+  <si>
+    <t>tomtesample7</t>
   </si>
   <si>
     <t>miprnacase5</t>
   </si>
   <si>
+    <t>tomtesubject7</t>
+  </si>
+  <si>
+    <t>tomtesample8</t>
+  </si>
+  <si>
     <t>miprnacase6</t>
+  </si>
+  <si>
+    <t>tomtesubject8</t>
+  </si>
+  <si>
+    <t>tomtesample9</t>
   </si>
   <si>
     <t>miprnacase7</t>
   </si>
   <si>
+    <t>tomtesubject9</t>
+  </si>
+  <si>
+    <t>tomtesample10</t>
+  </si>
+  <si>
     <t>miprnacase8</t>
+  </si>
+  <si>
+    <t>fibroblasts</t>
+  </si>
+  <si>
+    <t>tomtesubject10</t>
+  </si>
+  <si>
+    <t>tomtesample11</t>
   </si>
   <si>
     <t>miprnacase9</t>
   </si>
   <si>
+    <t>tomtesubject11</t>
+  </si>
+  <si>
+    <t>tomtesample12</t>
+  </si>
+  <si>
     <t>miprnacase10</t>
+  </si>
+  <si>
+    <t>tomtesubject12</t>
+  </si>
+  <si>
+    <t>tomtesample13</t>
   </si>
   <si>
     <t>miprnacase11</t>
   </si>
   <si>
+    <t>tomtesubject13</t>
+  </si>
+  <si>
+    <t>tomtesample14</t>
+  </si>
+  <si>
     <t>miprnacase12</t>
+  </si>
+  <si>
+    <t>tomtesubject14</t>
+  </si>
+  <si>
+    <t>tomtesample15</t>
   </si>
   <si>
     <t>miprnacase13</t>
   </si>
   <si>
+    <t>tomtesubject15</t>
+  </si>
+  <si>
+    <t>tomtesample16</t>
+  </si>
+  <si>
     <t>miprnacase14</t>
+  </si>
+  <si>
+    <t>tomtesubject16</t>
+  </si>
+  <si>
+    <t>tomtesample17</t>
   </si>
   <si>
     <t>miprnacase15</t>
   </si>
   <si>
+    <t>tomtesubject17</t>
+  </si>
+  <si>
+    <t>tomtesample18</t>
+  </si>
+  <si>
     <t>miprnacase16</t>
+  </si>
+  <si>
+    <t>tomtesubject18</t>
+  </si>
+  <si>
+    <t>tomtesample19</t>
   </si>
   <si>
     <t>miprnacase17</t>
   </si>
   <si>
+    <t>tomtesubject19</t>
+  </si>
+  <si>
+    <t>tomtesample20</t>
+  </si>
+  <si>
     <t>miprnacase18</t>
+  </si>
+  <si>
+    <t>tomtesubject20</t>
+  </si>
+  <si>
+    <t>tomtesample21</t>
   </si>
   <si>
     <t>miprnacase19</t>
   </si>
   <si>
+    <t>tomtesubject21</t>
+  </si>
+  <si>
+    <t>tomtesample22</t>
+  </si>
+  <si>
     <t>miprnacase20</t>
+  </si>
+  <si>
+    <t>tomtesubject22</t>
+  </si>
+  <si>
+    <t>tomtesample23</t>
   </si>
   <si>
     <t>miprnacase21</t>
   </si>
   <si>
+    <t>tomtesubject23</t>
+  </si>
+  <si>
+    <t>tomtesample24</t>
+  </si>
+  <si>
     <t>miprnacase22</t>
+  </si>
+  <si>
+    <t>tomtesubject24</t>
+  </si>
+  <si>
+    <t>tomtesample25</t>
   </si>
   <si>
     <t>miprnacase23</t>
   </si>
   <si>
+    <t>tomtesubject25</t>
+  </si>
+  <si>
+    <t>tomtesample26</t>
+  </si>
+  <si>
     <t>miprnacase24</t>
+  </si>
+  <si>
+    <t>tomtesubject26</t>
+  </si>
+  <si>
+    <t>tomtesample27</t>
   </si>
   <si>
     <t>miprnacase25</t>
   </si>
   <si>
+    <t>tomtesubject27</t>
+  </si>
+  <si>
+    <t>tomtesample28</t>
+  </si>
+  <si>
     <t>miprnacase26</t>
+  </si>
+  <si>
+    <t>tomtesubject28</t>
+  </si>
+  <si>
+    <t>tomtesample29</t>
   </si>
   <si>
     <t>miprnacase27</t>
   </si>
   <si>
+    <t>tomtesubject29</t>
+  </si>
+  <si>
+    <t>tomtesample30</t>
+  </si>
+  <si>
     <t>miprnacase28</t>
+  </si>
+  <si>
+    <t>tomtesubject30</t>
+  </si>
+  <si>
+    <t>tomtesample31</t>
   </si>
   <si>
     <t>miprnacase29</t>
   </si>
   <si>
+    <t>tomtesubject31</t>
+  </si>
+  <si>
+    <t>tomtesample32</t>
+  </si>
+  <si>
     <t>miprnacase30</t>
+  </si>
+  <si>
+    <t>tomtesubject32</t>
+  </si>
+  <si>
+    <t>tomtesample33</t>
   </si>
   <si>
     <t>miprnacase31</t>
   </si>
   <si>
+    <t>tomtesubject33</t>
+  </si>
+  <si>
+    <t>tomtesample34</t>
+  </si>
+  <si>
     <t>miprnacase32</t>
+  </si>
+  <si>
+    <t>tomtesubject34</t>
+  </si>
+  <si>
+    <t>tomtesample35</t>
   </si>
   <si>
     <t>miprnacase33</t>
   </si>
   <si>
+    <t>tomtesubject35</t>
+  </si>
+  <si>
+    <t>tomtesample36</t>
+  </si>
+  <si>
     <t>miprnacase34</t>
+  </si>
+  <si>
+    <t>tomtesubject36</t>
+  </si>
+  <si>
+    <t>tomtesample37</t>
   </si>
   <si>
     <t>miprnacase35</t>
   </si>
   <si>
+    <t>tomtesubject37</t>
+  </si>
+  <si>
+    <t>tomtesample38</t>
+  </si>
+  <si>
     <t>miprnacase36</t>
+  </si>
+  <si>
+    <t>tomtesubject38</t>
+  </si>
+  <si>
+    <t>tomtesample39</t>
   </si>
   <si>
     <t>miprnacase37</t>
   </si>
   <si>
+    <t>tomtesubject39</t>
+  </si>
+  <si>
+    <t>tomtesample40</t>
+  </si>
+  <si>
     <t>miprnacase38</t>
+  </si>
+  <si>
+    <t>tomtesubject40</t>
+  </si>
+  <si>
+    <t>tomtesample41</t>
   </si>
   <si>
     <t>miprnacase39</t>
   </si>
   <si>
+    <t>tomtesubject41</t>
+  </si>
+  <si>
+    <t>tomtesample42</t>
+  </si>
+  <si>
     <t>miprnacase40</t>
+  </si>
+  <si>
+    <t>tomtesubject42</t>
   </si>
   <si>
     <t>plate1</t>
@@ -3103,261 +3364,6 @@
   </si>
   <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>tomtesample1</t>
-  </si>
-  <si>
-    <t>tomtesample2</t>
-  </si>
-  <si>
-    <t>tomtesample3</t>
-  </si>
-  <si>
-    <t>tomtesample4</t>
-  </si>
-  <si>
-    <t>tomtesample5</t>
-  </si>
-  <si>
-    <t>tomtesample6</t>
-  </si>
-  <si>
-    <t>tomtesample7</t>
-  </si>
-  <si>
-    <t>tomtesample8</t>
-  </si>
-  <si>
-    <t>tomtesample9</t>
-  </si>
-  <si>
-    <t>tomtesample10</t>
-  </si>
-  <si>
-    <t>tomtesample11</t>
-  </si>
-  <si>
-    <t>tomtesample12</t>
-  </si>
-  <si>
-    <t>tomtesample13</t>
-  </si>
-  <si>
-    <t>tomtesample14</t>
-  </si>
-  <si>
-    <t>tomtesample15</t>
-  </si>
-  <si>
-    <t>tomtesample16</t>
-  </si>
-  <si>
-    <t>tomtesample17</t>
-  </si>
-  <si>
-    <t>tomtesample18</t>
-  </si>
-  <si>
-    <t>tomtesample19</t>
-  </si>
-  <si>
-    <t>tomtesample20</t>
-  </si>
-  <si>
-    <t>tomtesample21</t>
-  </si>
-  <si>
-    <t>tomtesample22</t>
-  </si>
-  <si>
-    <t>tomtesample23</t>
-  </si>
-  <si>
-    <t>tomtesample24</t>
-  </si>
-  <si>
-    <t>tomtesample25</t>
-  </si>
-  <si>
-    <t>tomtesample26</t>
-  </si>
-  <si>
-    <t>tomtesample27</t>
-  </si>
-  <si>
-    <t>tomtesample28</t>
-  </si>
-  <si>
-    <t>tomtesample29</t>
-  </si>
-  <si>
-    <t>tomtesample30</t>
-  </si>
-  <si>
-    <t>tomtesample31</t>
-  </si>
-  <si>
-    <t>tomtesample32</t>
-  </si>
-  <si>
-    <t>tomtesample33</t>
-  </si>
-  <si>
-    <t>tomtesample34</t>
-  </si>
-  <si>
-    <t>tomtesample35</t>
-  </si>
-  <si>
-    <t>tomtesample36</t>
-  </si>
-  <si>
-    <t>tomtesample37</t>
-  </si>
-  <si>
-    <t>tomtesample38</t>
-  </si>
-  <si>
-    <t>tomtesample39</t>
-  </si>
-  <si>
-    <t>tomtesample40</t>
-  </si>
-  <si>
-    <t>tomtesample41</t>
-  </si>
-  <si>
-    <t>tomtesample42</t>
-  </si>
-  <si>
-    <t>tomtecase1</t>
-  </si>
-  <si>
-    <t>tomtesubject1</t>
-  </si>
-  <si>
-    <t>tomtesubject2</t>
-  </si>
-  <si>
-    <t>tomtesubject3</t>
-  </si>
-  <si>
-    <t>tomtesubject4</t>
-  </si>
-  <si>
-    <t>tomtesubject5</t>
-  </si>
-  <si>
-    <t>tomtesubject6</t>
-  </si>
-  <si>
-    <t>tomtesubject7</t>
-  </si>
-  <si>
-    <t>tomtesubject8</t>
-  </si>
-  <si>
-    <t>tomtesubject9</t>
-  </si>
-  <si>
-    <t>tomtesubject10</t>
-  </si>
-  <si>
-    <t>tomtesubject11</t>
-  </si>
-  <si>
-    <t>tomtesubject12</t>
-  </si>
-  <si>
-    <t>tomtesubject13</t>
-  </si>
-  <si>
-    <t>tomtesubject14</t>
-  </si>
-  <si>
-    <t>tomtesubject15</t>
-  </si>
-  <si>
-    <t>tomtesubject16</t>
-  </si>
-  <si>
-    <t>tomtesubject17</t>
-  </si>
-  <si>
-    <t>tomtesubject18</t>
-  </si>
-  <si>
-    <t>tomtesubject19</t>
-  </si>
-  <si>
-    <t>tomtesubject20</t>
-  </si>
-  <si>
-    <t>tomtesubject21</t>
-  </si>
-  <si>
-    <t>tomtesubject22</t>
-  </si>
-  <si>
-    <t>tomtesubject23</t>
-  </si>
-  <si>
-    <t>tomtesubject24</t>
-  </si>
-  <si>
-    <t>tomtesubject25</t>
-  </si>
-  <si>
-    <t>tomtesubject26</t>
-  </si>
-  <si>
-    <t>tomtesubject27</t>
-  </si>
-  <si>
-    <t>tomtesubject28</t>
-  </si>
-  <si>
-    <t>tomtesubject29</t>
-  </si>
-  <si>
-    <t>tomtesubject30</t>
-  </si>
-  <si>
-    <t>tomtesubject31</t>
-  </si>
-  <si>
-    <t>tomtesubject32</t>
-  </si>
-  <si>
-    <t>tomtesubject33</t>
-  </si>
-  <si>
-    <t>tomtesubject34</t>
-  </si>
-  <si>
-    <t>tomtesubject35</t>
-  </si>
-  <si>
-    <t>tomtesubject36</t>
-  </si>
-  <si>
-    <t>tomtesubject37</t>
-  </si>
-  <si>
-    <t>tomtesubject38</t>
-  </si>
-  <si>
-    <t>tomtesubject39</t>
-  </si>
-  <si>
-    <t>tomtesubject40</t>
-  </si>
-  <si>
-    <t>tomtesubject41</t>
-  </si>
-  <si>
-    <t>tomtesubject42</t>
   </si>
 </sst>
 </file>
@@ -5064,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5078,7 +5084,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="92" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5094,32 +5100,32 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="93" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="93" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="93" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="93" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="93" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -5144,22 +5150,22 @@
     </row>
     <row r="19" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="99" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="145" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="101" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="145" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
@@ -5169,7 +5175,7 @@
     </row>
     <row r="24" spans="1:5" s="119" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="117" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5179,7 +5185,7 @@
     </row>
     <row r="26" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="99" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
@@ -5206,7 +5212,7 @@
     </row>
     <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -5236,7 +5242,7 @@
     </row>
     <row r="36" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -5281,7 +5287,7 @@
     </row>
     <row r="45" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5296,12 +5302,12 @@
     </row>
     <row r="48" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="143" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="101" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -5336,17 +5342,17 @@
     </row>
     <row r="56" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="98" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="117" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -5399,7 +5405,7 @@
       <c r="A77" s="95"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uiDu0kWyLqDl2EviS5tsN51JYrHADNIue5Z39ZD6dRlPQTQm/RJZnWB+MvsHXT+1r+VnUByEV0kkQPvQ3/r14Q==" saltValue="OoRrP3GjfGX9s8cF/Ov5pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Az2wlLBbKcA2IaDpdwqO+rUGyaVDITbOniexAyBq5l3N8zZMMPGngzDY9jolSmIMnBVScpasvuZZ1Ozohev9rQ==" saltValue="KbFuZSXuW5Z4rDgXrcdlGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -5421,8 +5427,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B53" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15:AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -5452,7 +5458,7 @@
     <col min="26" max="26" width="17.1640625" style="2" customWidth="1"/>
     <col min="27" max="27" width="6.6640625" style="2" customWidth="1"/>
     <col min="28" max="31" width="8.83203125" style="2"/>
-    <col min="32" max="32" width="15.6640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="19.5" style="2" customWidth="1"/>
     <col min="33" max="33" width="8.83203125" style="2"/>
     <col min="34" max="35" width="10.6640625" style="2" customWidth="1"/>
     <col min="36" max="36" width="8.83203125" style="6"/>
@@ -11776,7 +11782,7 @@
       <c r="AD9" s="161"/>
       <c r="AE9" s="33"/>
       <c r="AF9" s="139" t="s">
-        <v>530</v>
+        <v>620</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="166" t="s">
@@ -12902,7 +12908,7 @@
       </c>
       <c r="AE11" s="48"/>
       <c r="AF11" s="140" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG11" s="48"/>
       <c r="AH11" s="39" t="s">
@@ -12912,7 +12918,7 @@
         <v>509</v>
       </c>
       <c r="AJ11" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AK11" s="39" t="s">
         <v>37</v>
@@ -12983,7 +12989,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>48</v>
@@ -13046,7 +13052,7 @@
       </c>
       <c r="AE13" s="61"/>
       <c r="AF13" s="141" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG13" s="61"/>
       <c r="AH13" s="55" t="s">
@@ -13056,7 +13062,7 @@
         <v>503</v>
       </c>
       <c r="AJ13" s="55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AK13" s="55" t="s">
         <v>60</v>
@@ -13109,19 +13115,19 @@
     </row>
     <row r="15" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="66" t="s">
-        <v>662</v>
+        <v>621</v>
       </c>
       <c r="B15" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D15" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>704</v>
+        <v>622</v>
       </c>
       <c r="F15" s="68" t="s">
         <v>216</v>
@@ -13145,14 +13151,14 @@
         <v>20</v>
       </c>
       <c r="M15" s="113" t="s">
-        <v>705</v>
+        <v>623</v>
       </c>
       <c r="N15" s="85" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="71" t="s">
-        <v>659</v>
+        <v>746</v>
       </c>
       <c r="Q15" s="86" t="s">
         <v>78</v>
@@ -13165,10 +13171,10 @@
         <v>87</v>
       </c>
       <c r="U15" s="66" t="s">
-        <v>663</v>
+        <v>624</v>
       </c>
       <c r="V15" s="72" t="s">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="W15" s="73"/>
       <c r="X15" s="88"/>
@@ -13196,13 +13202,13 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="71" t="s">
-        <v>660</v>
+        <v>747</v>
       </c>
       <c r="AK15" s="89">
         <v>10</v>
       </c>
       <c r="AL15" s="71" t="s">
-        <v>661</v>
+        <v>748</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -14197,19 +14203,19 @@
     </row>
     <row r="16" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="66" t="s">
-        <v>663</v>
+        <v>624</v>
       </c>
       <c r="B16" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D16" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>704</v>
+        <v>622</v>
       </c>
       <c r="F16" s="68" t="s">
         <v>494</v>
@@ -14233,7 +14239,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="113" t="s">
-        <v>706</v>
+        <v>625</v>
       </c>
       <c r="N16" s="85" t="s">
         <v>80</v>
@@ -15265,22 +15271,22 @@
     </row>
     <row r="17" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="66" t="s">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="B17" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D17" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>704</v>
+        <v>622</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="G17" s="69" t="s">
         <v>93</v>
@@ -15301,7 +15307,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="113" t="s">
-        <v>707</v>
+        <v>627</v>
       </c>
       <c r="N17" s="85" t="s">
         <v>80</v>
@@ -16329,22 +16335,22 @@
     </row>
     <row r="18" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="66" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D18" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="G18" s="69" t="s">
         <v>93</v>
@@ -16365,7 +16371,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="113" t="s">
-        <v>708</v>
+        <v>630</v>
       </c>
       <c r="N18" s="85" t="s">
         <v>80</v>
@@ -17393,22 +17399,22 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="66" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>216</v>
+        <v>494</v>
       </c>
       <c r="G19" s="69" t="s">
         <v>93</v>
@@ -17429,7 +17435,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="113" t="s">
-        <v>709</v>
+        <v>633</v>
       </c>
       <c r="N19" s="85" t="s">
         <v>80</v>
@@ -18457,22 +18463,22 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="66" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D20" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="G20" s="69" t="s">
         <v>93</v>
@@ -18481,7 +18487,7 @@
         <v>73</v>
       </c>
       <c r="I20" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J20" s="84" t="s">
         <v>107</v>
@@ -18493,7 +18499,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="113" t="s">
-        <v>710</v>
+        <v>636</v>
       </c>
       <c r="N20" s="85" t="s">
         <v>80</v>
@@ -19521,19 +19527,19 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="66" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="B21" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D21" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>216</v>
@@ -19557,7 +19563,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="113" t="s">
-        <v>711</v>
+        <v>639</v>
       </c>
       <c r="N21" s="85" t="s">
         <v>80</v>
@@ -20585,19 +20591,19 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="66" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="B22" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D22" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="F22" s="68" t="s">
         <v>494</v>
@@ -20609,7 +20615,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J22" s="84" t="s">
         <v>101</v>
@@ -20621,7 +20627,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="113" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="N22" s="85" t="s">
         <v>80</v>
@@ -21649,22 +21655,22 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="66" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="B23" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D23" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="G23" s="69" t="s">
         <v>93</v>
@@ -21673,7 +21679,7 @@
         <v>73</v>
       </c>
       <c r="I23" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J23" s="84" t="s">
         <v>101</v>
@@ -21685,7 +21691,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="113" t="s">
-        <v>713</v>
+        <v>645</v>
       </c>
       <c r="N23" s="85" t="s">
         <v>80</v>
@@ -22713,22 +22719,22 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="66" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="B24" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D24" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="G24" s="69" t="s">
         <v>93</v>
@@ -22737,7 +22743,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="83" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="J24" s="84" t="s">
         <v>101</v>
@@ -22749,7 +22755,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="113" t="s">
-        <v>714</v>
+        <v>649</v>
       </c>
       <c r="N24" s="85" t="s">
         <v>80</v>
@@ -23777,22 +23783,22 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="66" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="B25" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D25" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>216</v>
+        <v>494</v>
       </c>
       <c r="G25" s="69" t="s">
         <v>93</v>
@@ -23813,7 +23819,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="113" t="s">
-        <v>715</v>
+        <v>652</v>
       </c>
       <c r="N25" s="85" t="s">
         <v>80</v>
@@ -24841,22 +24847,22 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D26" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="G26" s="69" t="s">
         <v>93</v>
@@ -24877,7 +24883,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="113" t="s">
-        <v>716</v>
+        <v>655</v>
       </c>
       <c r="N26" s="85" t="s">
         <v>80</v>
@@ -25905,19 +25911,19 @@
     </row>
     <row r="27" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D27" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="F27" s="68" t="s">
         <v>216</v>
@@ -25929,7 +25935,7 @@
         <v>73</v>
       </c>
       <c r="I27" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J27" s="84" t="s">
         <v>101</v>
@@ -25941,7 +25947,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="113" t="s">
-        <v>717</v>
+        <v>658</v>
       </c>
       <c r="N27" s="85" t="s">
         <v>80</v>
@@ -25979,19 +25985,19 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="66" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>494</v>
@@ -26015,7 +26021,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="113" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="N28" s="85" t="s">
         <v>80</v>
@@ -27043,22 +27049,22 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="66" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D29" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="G29" s="69" t="s">
         <v>93</v>
@@ -27079,7 +27085,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="113" t="s">
-        <v>719</v>
+        <v>664</v>
       </c>
       <c r="N29" s="85" t="s">
         <v>80</v>
@@ -28107,22 +28113,22 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="66" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D30" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="G30" s="69" t="s">
         <v>93</v>
@@ -28143,7 +28149,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="113" t="s">
-        <v>720</v>
+        <v>667</v>
       </c>
       <c r="N30" s="85" t="s">
         <v>80</v>
@@ -29171,22 +29177,22 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="66" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="B31" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D31" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>216</v>
+        <v>494</v>
       </c>
       <c r="G31" s="69" t="s">
         <v>93</v>
@@ -29207,7 +29213,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="113" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
       <c r="N31" s="85" t="s">
         <v>80</v>
@@ -30235,22 +30241,22 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B32" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D32" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>634</v>
+        <v>672</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="G32" s="69" t="s">
         <v>93</v>
@@ -30259,7 +30265,7 @@
         <v>73</v>
       </c>
       <c r="I32" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J32" s="84" t="s">
         <v>101</v>
@@ -30271,7 +30277,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="113" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="N32" s="85" t="s">
         <v>80</v>
@@ -31299,19 +31305,19 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="66" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B33" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D33" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>216</v>
@@ -31335,7 +31341,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="113" t="s">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="N33" s="85" t="s">
         <v>80</v>
@@ -32363,19 +32369,19 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="66" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B34" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>494</v>
@@ -32399,7 +32405,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="113" t="s">
-        <v>724</v>
+        <v>679</v>
       </c>
       <c r="N34" s="85" t="s">
         <v>80</v>
@@ -33427,22 +33433,22 @@
     </row>
     <row r="35" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="66" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D35" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="G35" s="69" t="s">
         <v>93</v>
@@ -33463,7 +33469,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="113" t="s">
-        <v>725</v>
+        <v>682</v>
       </c>
       <c r="N35" s="85" t="s">
         <v>80</v>
@@ -34497,16 +34503,16 @@
         <v>72</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D36" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="G36" s="69" t="s">
         <v>93</v>
@@ -34527,7 +34533,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="113" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="N36" s="85" t="s">
         <v>80</v>
@@ -34565,22 +34571,22 @@
     </row>
     <row r="37" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="66" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B37" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D37" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>216</v>
+        <v>494</v>
       </c>
       <c r="G37" s="69" t="s">
         <v>93</v>
@@ -34601,7 +34607,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="113" t="s">
-        <v>727</v>
+        <v>688</v>
       </c>
       <c r="N37" s="85" t="s">
         <v>80</v>
@@ -34639,22 +34645,22 @@
     </row>
     <row r="38" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="66" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D38" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="G38" s="69" t="s">
         <v>93</v>
@@ -34675,7 +34681,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="113" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="N38" s="85" t="s">
         <v>80</v>
@@ -34713,19 +34719,19 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B39" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D39" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>216</v>
@@ -34737,7 +34743,7 @@
         <v>73</v>
       </c>
       <c r="I39" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J39" s="84" t="s">
         <v>101</v>
@@ -34749,7 +34755,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="113" t="s">
-        <v>729</v>
+        <v>694</v>
       </c>
       <c r="N39" s="85" t="s">
         <v>80</v>
@@ -35777,19 +35783,19 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="66" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D40" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>642</v>
+        <v>696</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>494</v>
@@ -35813,7 +35819,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="113" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="N40" s="85" t="s">
         <v>80</v>
@@ -36841,22 +36847,22 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="B41" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D41" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>643</v>
+        <v>699</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="G41" s="69" t="s">
         <v>93</v>
@@ -36865,7 +36871,7 @@
         <v>73</v>
       </c>
       <c r="I41" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J41" s="84" t="s">
         <v>101</v>
@@ -36877,7 +36883,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="113" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="N41" s="85" t="s">
         <v>80</v>
@@ -37905,22 +37911,22 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="66" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="B42" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>644</v>
+        <v>702</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="G42" s="69" t="s">
         <v>93</v>
@@ -37929,7 +37935,7 @@
         <v>73</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J42" s="84" t="s">
         <v>101</v>
@@ -37941,7 +37947,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="113" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
       <c r="N42" s="85" t="s">
         <v>80</v>
@@ -38969,22 +38975,22 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="B43" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D43" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>645</v>
+        <v>705</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>216</v>
+        <v>494</v>
       </c>
       <c r="G43" s="69" t="s">
         <v>93</v>
@@ -38993,7 +38999,7 @@
         <v>73</v>
       </c>
       <c r="I43" s="83" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="J43" s="84" t="s">
         <v>101</v>
@@ -39005,7 +39011,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="113" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="N43" s="85" t="s">
         <v>80</v>
@@ -40033,22 +40039,22 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="B44" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D44" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E44" s="68" t="s">
-        <v>646</v>
+        <v>708</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="G44" s="69" t="s">
         <v>93</v>
@@ -40069,7 +40075,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="113" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="N44" s="85" t="s">
         <v>80</v>
@@ -41097,19 +41103,19 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="B45" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D45" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E45" s="68" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="F45" s="68" t="s">
         <v>216</v>
@@ -41133,7 +41139,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="113" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="N45" s="85" t="s">
         <v>80</v>
@@ -42161,19 +42167,19 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="66" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="B46" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D46" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>648</v>
+        <v>714</v>
       </c>
       <c r="F46" s="68" t="s">
         <v>494</v>
@@ -42185,7 +42191,7 @@
         <v>73</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J46" s="84" t="s">
         <v>101</v>
@@ -42197,7 +42203,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="113" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="N46" s="85" t="s">
         <v>80</v>
@@ -43225,22 +43231,22 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="66" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D47" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>649</v>
+        <v>717</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="G47" s="69" t="s">
         <v>93</v>
@@ -43261,7 +43267,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="113" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="N47" s="85" t="s">
         <v>80</v>
@@ -44289,22 +44295,22 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="66" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="B48" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D48" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E48" s="68" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="G48" s="69" t="s">
         <v>93</v>
@@ -44325,7 +44331,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="113" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="N48" s="85" t="s">
         <v>80</v>
@@ -45353,22 +45359,22 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="66" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="B49" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D49" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>651</v>
+        <v>723</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>216</v>
+        <v>494</v>
       </c>
       <c r="G49" s="69" t="s">
         <v>93</v>
@@ -45389,7 +45395,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="113" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="N49" s="85" t="s">
         <v>80</v>
@@ -46417,22 +46423,22 @@
     </row>
     <row r="50" spans="1:1028" s="79" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="78" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="B50" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D50" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="G50" s="69" t="s">
         <v>93</v>
@@ -46453,7 +46459,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="113" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="N50" s="85" t="s">
         <v>80</v>
@@ -46463,7 +46469,7 @@
       <c r="Q50" s="86"/>
       <c r="R50" s="44"/>
       <c r="S50" s="89" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="T50" s="107" t="s">
         <v>76</v>
@@ -46491,19 +46497,19 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="78" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="B51" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D51" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="F51" s="68" t="s">
         <v>216</v>
@@ -46515,7 +46521,7 @@
         <v>73</v>
       </c>
       <c r="I51" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J51" s="84" t="s">
         <v>101</v>
@@ -46527,7 +46533,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="113" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="N51" s="85" t="s">
         <v>80</v>
@@ -47555,19 +47561,19 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="78" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D52" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>494</v>
@@ -47591,7 +47597,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="113" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="N52" s="85" t="s">
         <v>80</v>
@@ -48619,22 +48625,22 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="78" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="B53" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D53" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="F53" s="68" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="G53" s="69" t="s">
         <v>93</v>
@@ -48655,7 +48661,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="113" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="N53" s="85" t="s">
         <v>80</v>
@@ -49683,22 +49689,22 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="78" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B54" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D54" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E54" s="68" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="G54" s="69" t="s">
         <v>93</v>
@@ -49719,7 +49725,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="113" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="N54" s="85" t="s">
         <v>80</v>
@@ -50747,22 +50753,22 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="78" t="s">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="B55" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C55" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D55" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>216</v>
+        <v>494</v>
       </c>
       <c r="G55" s="69" t="s">
         <v>93</v>
@@ -50783,7 +50789,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="113" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="N55" s="85" t="s">
         <v>80</v>
@@ -51811,22 +51817,22 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="78" t="s">
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="68" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D56" s="68" t="s">
         <v>522</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>658</v>
+        <v>744</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="G56" s="69" t="s">
         <v>93</v>
@@ -51847,7 +51853,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="113" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N56" s="85" t="s">
         <v>80</v>
@@ -72353,7 +72359,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GbtqGQlG+uvH7fqz1D7DgHNT8lsfp7sJc0FxoH2qRGGZQqOh+f4lZJw0ClOQLLe88RZJWejjJfuBcH4ASw+ziA==" saltValue="nFlSlisQq3Z1NxAA2xdnEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XjkAllgKaArO0BnzJ3r4hLtiLzDWpSVxIXw2fqAW/kRh8YWL8tRYlSRkZN0Lah5yZnT10dvb7tfqTaNzi8W/nQ==" saltValue="Q6bYP4VeeNu06RT7ecgiqw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
@@ -72361,7 +72367,6 @@
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="AH9:AL9"/>
   </mergeCells>
-  <phoneticPr fontId="41" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O15:O394" xr:uid="{19465EDB-9F0A-D648-800B-EA415E10A078}">
       <formula1>#REF!</formula1>
@@ -72477,12 +72482,6 @@
           </x14:formula1>
           <xm:sqref>G15:G395</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$D$3:$D$40</xm:f>
-          </x14:formula1>
-          <xm:sqref>F15:F395</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CAFFBB78-152F-CC49-B904-7BF78A43F701}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$C$3:$C$10</xm:f>
@@ -72507,6 +72506,12 @@
           </x14:formula1>
           <xm:sqref>C15:C394</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$D$3:$D$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>F15:F395</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -72520,8 +72525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AM214"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -72551,7 +72556,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="121" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>44</v>
@@ -72714,7 +72719,7 @@
         <v>89</v>
       </c>
       <c r="N4" s="131" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O4" s="129">
         <v>10</v>
@@ -72737,7 +72742,7 @@
         <v>486</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C5" s="126" t="s">
         <v>471</v>
@@ -72767,7 +72772,7 @@
         <v>97</v>
       </c>
       <c r="N5" s="131" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O5" s="129">
         <v>15</v>
@@ -72784,7 +72789,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B6" s="114" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C6" s="126" t="s">
         <v>522</v>
@@ -72861,13 +72866,13 @@
         <v>110</v>
       </c>
       <c r="G8" s="128" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M8" s="134" t="s">
         <v>112</v>
       </c>
       <c r="N8" s="131" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O8" s="129">
         <v>30</v>
@@ -72881,7 +72886,7 @@
         <v>506</v>
       </c>
       <c r="C9" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" s="114" t="s">
         <v>458</v>
@@ -72910,7 +72915,7 @@
         <v>469</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D10" s="114" t="s">
         <v>459</v>
@@ -72925,7 +72930,7 @@
         <v>120</v>
       </c>
       <c r="N10" s="131" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O10" s="129">
         <v>40</v>
@@ -72943,13 +72948,13 @@
         <v>123</v>
       </c>
       <c r="G11" s="135" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M11" s="130" t="s">
         <v>125</v>
       </c>
       <c r="N11" s="131" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O11" s="129">
         <v>45</v>
@@ -72966,13 +72971,13 @@
         <v>127</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M12" s="134" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="131" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="O12" s="129">
         <v>50</v>
@@ -72989,13 +72994,13 @@
         <v>132</v>
       </c>
       <c r="G13" s="156" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="M13" s="134" t="s">
         <v>134</v>
       </c>
       <c r="N13" s="131" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O13" s="129">
         <v>55</v>
@@ -73019,7 +73024,7 @@
         <v>139</v>
       </c>
       <c r="N14" s="131" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O14" s="129">
         <v>60</v>
@@ -73063,7 +73068,7 @@
         <v>146</v>
       </c>
       <c r="G16" s="128" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M16" s="134" t="s">
         <v>148</v>
@@ -73107,7 +73112,7 @@
       <c r="B18" s="137"/>
       <c r="C18" s="137"/>
       <c r="D18" s="114" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F18" s="128" t="s">
         <v>154</v>
@@ -73119,7 +73124,7 @@
         <v>155</v>
       </c>
       <c r="N18" s="131" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O18" s="129">
         <v>80</v>
@@ -73166,7 +73171,7 @@
         <v>161</v>
       </c>
       <c r="N20" s="131" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="O20" s="129">
         <v>90</v>
@@ -73184,7 +73189,7 @@
         <v>163</v>
       </c>
       <c r="G21" s="128" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M21" s="134" t="s">
         <v>164</v>
@@ -73228,7 +73233,7 @@
       <c r="B23" s="137"/>
       <c r="C23" s="137"/>
       <c r="D23" s="114" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F23" s="128" t="s">
         <v>169</v>
@@ -73256,7 +73261,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R24" s="128">
         <v>21</v>
@@ -73266,7 +73271,7 @@
       <c r="B25" s="137"/>
       <c r="C25" s="137"/>
       <c r="D25" s="114" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F25" s="128" t="s">
         <v>176</v>
@@ -73286,7 +73291,7 @@
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
       <c r="D26" s="114" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F26" s="128" t="s">
         <v>179</v>
@@ -73296,7 +73301,7 @@
         <v>180</v>
       </c>
       <c r="N26" s="131" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R26" s="128">
         <v>23</v>
@@ -73306,7 +73311,7 @@
       <c r="B27" s="137"/>
       <c r="C27" s="137"/>
       <c r="D27" s="114" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F27" s="128" t="s">
         <v>183</v>
@@ -73326,7 +73331,7 @@
       <c r="B28" s="137"/>
       <c r="C28" s="137"/>
       <c r="D28" s="114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F28" s="128" t="s">
         <v>186</v>
@@ -73346,7 +73351,7 @@
       <c r="B29" s="137"/>
       <c r="C29" s="137"/>
       <c r="D29" s="114" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F29" s="128" t="s">
         <v>189</v>
@@ -73356,7 +73361,7 @@
         <v>190</v>
       </c>
       <c r="N29" s="131" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R29" s="128">
         <v>26</v>
@@ -73396,7 +73401,7 @@
         <v>196</v>
       </c>
       <c r="N31" s="131" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R31" s="128">
         <v>28</v>
@@ -73415,7 +73420,7 @@
         <v>199</v>
       </c>
       <c r="N32" s="157" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R32" s="128">
         <v>29</v>
@@ -73425,7 +73430,7 @@
       <c r="B33" s="137"/>
       <c r="C33" s="137"/>
       <c r="D33" s="114" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="F33" s="128" t="s">
         <v>201</v>
@@ -73434,7 +73439,7 @@
         <v>202</v>
       </c>
       <c r="N33" s="131" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R33" s="128">
         <v>30</v>
@@ -73444,7 +73449,7 @@
       <c r="B34" s="137"/>
       <c r="C34" s="137"/>
       <c r="D34" s="114" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F34" s="128" t="s">
         <v>204</v>
@@ -73453,7 +73458,7 @@
         <v>205</v>
       </c>
       <c r="N34" s="157" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R34" s="128">
         <v>31</v>
@@ -73463,7 +73468,7 @@
       <c r="B35" s="137"/>
       <c r="C35" s="137"/>
       <c r="D35" s="114" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F35" s="128" t="s">
         <v>207</v>
@@ -73482,7 +73487,7 @@
       <c r="B36" s="137"/>
       <c r="C36" s="137"/>
       <c r="D36" s="114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F36" s="128" t="s">
         <v>210</v>
@@ -73501,7 +73506,7 @@
       <c r="B37" s="137"/>
       <c r="C37" s="137"/>
       <c r="D37" s="114" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="F37" s="128" t="s">
         <v>213</v>
@@ -73520,7 +73525,7 @@
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
       <c r="D38" s="114" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F38" s="128" t="s">
         <v>217</v>
@@ -73539,7 +73544,7 @@
       <c r="B39" s="137"/>
       <c r="C39" s="137"/>
       <c r="D39" s="114" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F39" s="128" t="s">
         <v>220</v>
@@ -73558,7 +73563,7 @@
       <c r="B40" s="137"/>
       <c r="C40" s="137"/>
       <c r="D40" s="114" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F40" s="128" t="s">
         <v>223</v>
@@ -73575,6 +73580,9 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B41" s="137"/>
+      <c r="D41" s="114" t="s">
+        <v>496</v>
+      </c>
       <c r="F41" s="128" t="s">
         <v>226</v>
       </c>
@@ -73624,7 +73632,7 @@
         <v>233</v>
       </c>
       <c r="N44" s="131" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R44" s="128">
         <v>41</v>
@@ -73638,7 +73646,7 @@
         <v>235</v>
       </c>
       <c r="N45" s="131" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R45" s="128">
         <v>42</v>
@@ -73652,7 +73660,7 @@
         <v>237</v>
       </c>
       <c r="N46" s="131" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R46" s="128">
         <v>43</v>
@@ -73666,7 +73674,7 @@
         <v>239</v>
       </c>
       <c r="N47" s="157" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R47" s="128">
         <v>44</v>
@@ -73708,7 +73716,7 @@
         <v>245</v>
       </c>
       <c r="N50" s="131" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R50" s="128">
         <v>47</v>
@@ -73750,7 +73758,7 @@
         <v>251</v>
       </c>
       <c r="N53" s="131" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R53" s="128">
         <v>50</v>
@@ -73764,7 +73772,7 @@
         <v>253</v>
       </c>
       <c r="N54" s="131" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R54" s="128">
         <v>51</v>
@@ -73778,7 +73786,7 @@
         <v>255</v>
       </c>
       <c r="N55" s="131" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R55" s="128">
         <v>52</v>
@@ -73820,7 +73828,7 @@
         <v>261</v>
       </c>
       <c r="N58" s="131" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R58" s="128">
         <v>55</v>
@@ -73848,7 +73856,7 @@
         <v>265</v>
       </c>
       <c r="N60" s="131" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="R60" s="128">
         <v>57</v>
@@ -73862,7 +73870,7 @@
         <v>267</v>
       </c>
       <c r="N61" s="131" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="R61" s="128">
         <v>58</v>
@@ -73876,7 +73884,7 @@
         <v>269</v>
       </c>
       <c r="N62" s="131" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R62" s="128">
         <v>59</v>
@@ -73904,7 +73912,7 @@
         <v>273</v>
       </c>
       <c r="N64" s="131" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R64" s="128">
         <v>61</v>
@@ -73932,7 +73940,7 @@
         <v>277</v>
       </c>
       <c r="N66" s="131" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R66" s="128">
         <v>63</v>
@@ -73946,7 +73954,7 @@
         <v>279</v>
       </c>
       <c r="N67" s="131" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R67" s="128">
         <v>64</v>
@@ -73974,7 +73982,7 @@
         <v>283</v>
       </c>
       <c r="N69" s="157" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R69" s="128">
         <v>66</v>
@@ -74016,7 +74024,7 @@
         <v>289</v>
       </c>
       <c r="N72" s="157" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R72" s="128">
         <v>69</v>
@@ -74072,7 +74080,7 @@
         <v>297</v>
       </c>
       <c r="N76" s="157" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R76" s="128">
         <v>73</v>
@@ -74100,7 +74108,7 @@
         <v>301</v>
       </c>
       <c r="N78" s="157" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R78" s="128">
         <v>75</v>
@@ -74938,51 +74946,51 @@
     </row>
     <row r="206" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F206" s="132" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F207" s="128" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F208" s="132" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F209" s="128" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F210" s="128" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F211" s="128" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F212" s="128" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="213" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F213" s="128" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F214" s="128" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZkEFQwrdm3lFFGCp6toN04uZQlNJKk1KIo0PxCp6crRbX7trMuYvpJWZpRbOu1YggcYE7uqVXJ+je0CxbdfNMg==" saltValue="n9J2pHKiqVILciALkLvwNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SJt2qR4NNL89gjMLz3lb8KS7U2Wy/60p9MEG62c44OLvpVapJvqU92XgGY/Lm1PgddmhSAS4QKVtPeoEyj1TqQ==" saltValue="3kDAI0+xsp0mqQhPySbK0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/fixtures/orderforms/1508.31.tomte.xlsx
+++ b/tests/fixtures/orderforms/1508.31.tomte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{178FE6EA-C259-F548-A259-802F661C3911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D53E52-6C0C-C041-8CF7-271BF5FDC89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1680" windowWidth="28800" windowHeight="16240" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="748">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3063,9 +3063,6 @@
     <t>miprnacase8</t>
   </si>
   <si>
-    <t>fibroblasts</t>
-  </si>
-  <si>
     <t>tomtesubject10</t>
   </si>
   <si>
@@ -5427,8 +5424,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15:AL16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13158,7 +13155,7 @@
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="71" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q15" s="86" t="s">
         <v>78</v>
@@ -13202,13 +13199,13 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="71" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AK15" s="89">
         <v>10</v>
       </c>
       <c r="AL15" s="71" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -22743,7 +22740,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="83" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="J24" s="84" t="s">
         <v>101</v>
@@ -22755,7 +22752,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="113" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N24" s="85" t="s">
         <v>80</v>
@@ -23783,7 +23780,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B25" s="67" t="s">
         <v>72</v>
@@ -23795,7 +23792,7 @@
         <v>522</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>494</v>
@@ -23819,7 +23816,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="113" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N25" s="85" t="s">
         <v>80</v>
@@ -24847,7 +24844,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>72</v>
@@ -24859,7 +24856,7 @@
         <v>522</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>616</v>
@@ -24883,7 +24880,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="113" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N26" s="85" t="s">
         <v>80</v>
@@ -25911,7 +25908,7 @@
     </row>
     <row r="27" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>72</v>
@@ -25923,7 +25920,7 @@
         <v>522</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F27" s="68" t="s">
         <v>216</v>
@@ -25947,7 +25944,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="113" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N27" s="85" t="s">
         <v>80</v>
@@ -25985,7 +25982,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="66" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>72</v>
@@ -25997,7 +25994,7 @@
         <v>522</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>494</v>
@@ -26021,7 +26018,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="113" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N28" s="85" t="s">
         <v>80</v>
@@ -27049,7 +27046,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="66" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>72</v>
@@ -27061,7 +27058,7 @@
         <v>522</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>616</v>
@@ -27085,7 +27082,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="113" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N29" s="85" t="s">
         <v>80</v>
@@ -28113,7 +28110,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="66" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>72</v>
@@ -28125,7 +28122,7 @@
         <v>522</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F30" s="68" t="s">
         <v>216</v>
@@ -28149,7 +28146,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="113" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N30" s="85" t="s">
         <v>80</v>
@@ -29177,7 +29174,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="66" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B31" s="67" t="s">
         <v>72</v>
@@ -29189,7 +29186,7 @@
         <v>522</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>494</v>
@@ -29213,7 +29210,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="113" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N31" s="85" t="s">
         <v>80</v>
@@ -30241,7 +30238,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B32" s="67" t="s">
         <v>72</v>
@@ -30253,7 +30250,7 @@
         <v>522</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F32" s="68" t="s">
         <v>616</v>
@@ -30277,7 +30274,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="113" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N32" s="85" t="s">
         <v>80</v>
@@ -31305,7 +31302,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="66" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B33" s="67" t="s">
         <v>72</v>
@@ -31317,7 +31314,7 @@
         <v>522</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>216</v>
@@ -31341,7 +31338,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="113" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N33" s="85" t="s">
         <v>80</v>
@@ -32369,7 +32366,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="66" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B34" s="67" t="s">
         <v>72</v>
@@ -32381,7 +32378,7 @@
         <v>522</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>494</v>
@@ -32405,7 +32402,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="113" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N34" s="85" t="s">
         <v>80</v>
@@ -33433,7 +33430,7 @@
     </row>
     <row r="35" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="66" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>72</v>
@@ -33445,7 +33442,7 @@
         <v>522</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>616</v>
@@ -33469,7 +33466,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="113" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N35" s="85" t="s">
         <v>80</v>
@@ -34497,7 +34494,7 @@
     </row>
     <row r="36" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="66" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B36" s="67" t="s">
         <v>72</v>
@@ -34509,7 +34506,7 @@
         <v>522</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>216</v>
@@ -34533,7 +34530,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="113" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N36" s="85" t="s">
         <v>80</v>
@@ -34571,7 +34568,7 @@
     </row>
     <row r="37" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="66" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B37" s="67" t="s">
         <v>72</v>
@@ -34583,7 +34580,7 @@
         <v>522</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F37" s="68" t="s">
         <v>494</v>
@@ -34607,7 +34604,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="113" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N37" s="85" t="s">
         <v>80</v>
@@ -34645,7 +34642,7 @@
     </row>
     <row r="38" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="66" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>72</v>
@@ -34657,7 +34654,7 @@
         <v>522</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>616</v>
@@ -34681,7 +34678,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="113" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N38" s="85" t="s">
         <v>80</v>
@@ -34719,7 +34716,7 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B39" s="67" t="s">
         <v>72</v>
@@ -34731,7 +34728,7 @@
         <v>522</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>216</v>
@@ -34755,7 +34752,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="113" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N39" s="85" t="s">
         <v>80</v>
@@ -35783,7 +35780,7 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="66" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>72</v>
@@ -35795,7 +35792,7 @@
         <v>522</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>494</v>
@@ -35819,7 +35816,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="113" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N40" s="85" t="s">
         <v>80</v>
@@ -36847,7 +36844,7 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B41" s="67" t="s">
         <v>72</v>
@@ -36859,7 +36856,7 @@
         <v>522</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>616</v>
@@ -36883,7 +36880,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="113" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N41" s="85" t="s">
         <v>80</v>
@@ -37911,7 +37908,7 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B42" s="67" t="s">
         <v>72</v>
@@ -37923,7 +37920,7 @@
         <v>522</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>216</v>
@@ -37947,7 +37944,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="113" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N42" s="85" t="s">
         <v>80</v>
@@ -38975,7 +38972,7 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B43" s="67" t="s">
         <v>72</v>
@@ -38987,7 +38984,7 @@
         <v>522</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>494</v>
@@ -38999,7 +38996,7 @@
         <v>73</v>
       </c>
       <c r="I43" s="83" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="J43" s="84" t="s">
         <v>101</v>
@@ -39011,7 +39008,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="113" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N43" s="85" t="s">
         <v>80</v>
@@ -40039,7 +40036,7 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B44" s="67" t="s">
         <v>72</v>
@@ -40051,7 +40048,7 @@
         <v>522</v>
       </c>
       <c r="E44" s="68" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F44" s="68" t="s">
         <v>616</v>
@@ -40075,7 +40072,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="113" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N44" s="85" t="s">
         <v>80</v>
@@ -41103,7 +41100,7 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B45" s="67" t="s">
         <v>72</v>
@@ -41115,7 +41112,7 @@
         <v>522</v>
       </c>
       <c r="E45" s="68" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F45" s="68" t="s">
         <v>216</v>
@@ -41139,7 +41136,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N45" s="85" t="s">
         <v>80</v>
@@ -42167,7 +42164,7 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="66" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B46" s="67" t="s">
         <v>72</v>
@@ -42179,7 +42176,7 @@
         <v>522</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F46" s="68" t="s">
         <v>494</v>
@@ -42203,7 +42200,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="113" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N46" s="85" t="s">
         <v>80</v>
@@ -43231,7 +43228,7 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="66" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>72</v>
@@ -43243,7 +43240,7 @@
         <v>522</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F47" s="68" t="s">
         <v>616</v>
@@ -43267,7 +43264,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="113" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N47" s="85" t="s">
         <v>80</v>
@@ -44295,7 +44292,7 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="66" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B48" s="67" t="s">
         <v>72</v>
@@ -44307,7 +44304,7 @@
         <v>522</v>
       </c>
       <c r="E48" s="68" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F48" s="68" t="s">
         <v>216</v>
@@ -44331,7 +44328,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="113" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="N48" s="85" t="s">
         <v>80</v>
@@ -45359,7 +45356,7 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="66" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B49" s="67" t="s">
         <v>72</v>
@@ -45371,7 +45368,7 @@
         <v>522</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F49" s="68" t="s">
         <v>494</v>
@@ -45395,7 +45392,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="113" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N49" s="85" t="s">
         <v>80</v>
@@ -46423,7 +46420,7 @@
     </row>
     <row r="50" spans="1:1028" s="79" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="78" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B50" s="67" t="s">
         <v>72</v>
@@ -46435,7 +46432,7 @@
         <v>522</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F50" s="68" t="s">
         <v>616</v>
@@ -46459,7 +46456,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="113" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N50" s="85" t="s">
         <v>80</v>
@@ -46497,7 +46494,7 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="78" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B51" s="67" t="s">
         <v>72</v>
@@ -46509,7 +46506,7 @@
         <v>522</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F51" s="68" t="s">
         <v>216</v>
@@ -46533,7 +46530,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="113" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N51" s="85" t="s">
         <v>80</v>
@@ -47561,7 +47558,7 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="78" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>72</v>
@@ -47573,7 +47570,7 @@
         <v>522</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>494</v>
@@ -47597,7 +47594,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="113" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N52" s="85" t="s">
         <v>80</v>
@@ -48625,7 +48622,7 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="78" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B53" s="67" t="s">
         <v>72</v>
@@ -48637,7 +48634,7 @@
         <v>522</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F53" s="68" t="s">
         <v>616</v>
@@ -48661,7 +48658,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="113" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N53" s="85" t="s">
         <v>80</v>
@@ -49689,7 +49686,7 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="78" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B54" s="67" t="s">
         <v>72</v>
@@ -49701,7 +49698,7 @@
         <v>522</v>
       </c>
       <c r="E54" s="68" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F54" s="68" t="s">
         <v>216</v>
@@ -49725,7 +49722,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="113" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N54" s="85" t="s">
         <v>80</v>
@@ -50753,7 +50750,7 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="78" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B55" s="67" t="s">
         <v>72</v>
@@ -50765,7 +50762,7 @@
         <v>522</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F55" s="68" t="s">
         <v>494</v>
@@ -50789,7 +50786,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="113" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N55" s="85" t="s">
         <v>80</v>
@@ -51817,7 +51814,7 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="78" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>72</v>
@@ -51829,7 +51826,7 @@
         <v>522</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F56" s="68" t="s">
         <v>616</v>
@@ -51853,7 +51850,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="113" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N56" s="85" t="s">
         <v>80</v>

--- a/tests/fixtures/orderforms/1508.31.tomte.xlsx
+++ b/tests/fixtures/orderforms/1508.31.tomte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D53E52-6C0C-C041-8CF7-271BF5FDC89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E291442-A0D1-CF4D-A161-FB0F43D6BF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1680" windowWidth="28800" windowHeight="16240" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -3006,16 +3006,10 @@
     <t>tomtesample4</t>
   </si>
   <si>
-    <t>miprnacase2</t>
-  </si>
-  <si>
     <t>tomtesubject4</t>
   </si>
   <si>
     <t>tomtesample5</t>
-  </si>
-  <si>
-    <t>miprnacase3</t>
   </si>
   <si>
     <t>tomtesubject5</t>
@@ -3024,16 +3018,10 @@
     <t>tomtesample6</t>
   </si>
   <si>
-    <t>miprnacase4</t>
-  </si>
-  <si>
     <t>tomtesubject6</t>
   </si>
   <si>
     <t>tomtesample7</t>
-  </si>
-  <si>
-    <t>miprnacase5</t>
   </si>
   <si>
     <t>tomtesubject7</t>
@@ -3042,16 +3030,10 @@
     <t>tomtesample8</t>
   </si>
   <si>
-    <t>miprnacase6</t>
-  </si>
-  <si>
     <t>tomtesubject8</t>
   </si>
   <si>
     <t>tomtesample9</t>
-  </si>
-  <si>
-    <t>miprnacase7</t>
   </si>
   <si>
     <t>tomtesubject9</t>
@@ -3060,16 +3042,10 @@
     <t>tomtesample10</t>
   </si>
   <si>
-    <t>miprnacase8</t>
-  </si>
-  <si>
     <t>tomtesubject10</t>
   </si>
   <si>
     <t>tomtesample11</t>
-  </si>
-  <si>
-    <t>miprnacase9</t>
   </si>
   <si>
     <t>tomtesubject11</t>
@@ -3078,16 +3054,10 @@
     <t>tomtesample12</t>
   </si>
   <si>
-    <t>miprnacase10</t>
-  </si>
-  <si>
     <t>tomtesubject12</t>
   </si>
   <si>
     <t>tomtesample13</t>
-  </si>
-  <si>
-    <t>miprnacase11</t>
   </si>
   <si>
     <t>tomtesubject13</t>
@@ -3096,16 +3066,10 @@
     <t>tomtesample14</t>
   </si>
   <si>
-    <t>miprnacase12</t>
-  </si>
-  <si>
     <t>tomtesubject14</t>
   </si>
   <si>
     <t>tomtesample15</t>
-  </si>
-  <si>
-    <t>miprnacase13</t>
   </si>
   <si>
     <t>tomtesubject15</t>
@@ -3114,16 +3078,10 @@
     <t>tomtesample16</t>
   </si>
   <si>
-    <t>miprnacase14</t>
-  </si>
-  <si>
     <t>tomtesubject16</t>
   </si>
   <si>
     <t>tomtesample17</t>
-  </si>
-  <si>
-    <t>miprnacase15</t>
   </si>
   <si>
     <t>tomtesubject17</t>
@@ -3132,16 +3090,10 @@
     <t>tomtesample18</t>
   </si>
   <si>
-    <t>miprnacase16</t>
-  </si>
-  <si>
     <t>tomtesubject18</t>
   </si>
   <si>
     <t>tomtesample19</t>
-  </si>
-  <si>
-    <t>miprnacase17</t>
   </si>
   <si>
     <t>tomtesubject19</t>
@@ -3150,16 +3102,10 @@
     <t>tomtesample20</t>
   </si>
   <si>
-    <t>miprnacase18</t>
-  </si>
-  <si>
     <t>tomtesubject20</t>
   </si>
   <si>
     <t>tomtesample21</t>
-  </si>
-  <si>
-    <t>miprnacase19</t>
   </si>
   <si>
     <t>tomtesubject21</t>
@@ -3168,16 +3114,10 @@
     <t>tomtesample22</t>
   </si>
   <si>
-    <t>miprnacase20</t>
-  </si>
-  <si>
     <t>tomtesubject22</t>
   </si>
   <si>
     <t>tomtesample23</t>
-  </si>
-  <si>
-    <t>miprnacase21</t>
   </si>
   <si>
     <t>tomtesubject23</t>
@@ -3186,16 +3126,10 @@
     <t>tomtesample24</t>
   </si>
   <si>
-    <t>miprnacase22</t>
-  </si>
-  <si>
     <t>tomtesubject24</t>
   </si>
   <si>
     <t>tomtesample25</t>
-  </si>
-  <si>
-    <t>miprnacase23</t>
   </si>
   <si>
     <t>tomtesubject25</t>
@@ -3204,16 +3138,10 @@
     <t>tomtesample26</t>
   </si>
   <si>
-    <t>miprnacase24</t>
-  </si>
-  <si>
     <t>tomtesubject26</t>
   </si>
   <si>
     <t>tomtesample27</t>
-  </si>
-  <si>
-    <t>miprnacase25</t>
   </si>
   <si>
     <t>tomtesubject27</t>
@@ -3222,16 +3150,10 @@
     <t>tomtesample28</t>
   </si>
   <si>
-    <t>miprnacase26</t>
-  </si>
-  <si>
     <t>tomtesubject28</t>
   </si>
   <si>
     <t>tomtesample29</t>
-  </si>
-  <si>
-    <t>miprnacase27</t>
   </si>
   <si>
     <t>tomtesubject29</t>
@@ -3240,16 +3162,10 @@
     <t>tomtesample30</t>
   </si>
   <si>
-    <t>miprnacase28</t>
-  </si>
-  <si>
     <t>tomtesubject30</t>
   </si>
   <si>
     <t>tomtesample31</t>
-  </si>
-  <si>
-    <t>miprnacase29</t>
   </si>
   <si>
     <t>tomtesubject31</t>
@@ -3258,16 +3174,10 @@
     <t>tomtesample32</t>
   </si>
   <si>
-    <t>miprnacase30</t>
-  </si>
-  <si>
     <t>tomtesubject32</t>
   </si>
   <si>
     <t>tomtesample33</t>
-  </si>
-  <si>
-    <t>miprnacase31</t>
   </si>
   <si>
     <t>tomtesubject33</t>
@@ -3276,16 +3186,10 @@
     <t>tomtesample34</t>
   </si>
   <si>
-    <t>miprnacase32</t>
-  </si>
-  <si>
     <t>tomtesubject34</t>
   </si>
   <si>
     <t>tomtesample35</t>
-  </si>
-  <si>
-    <t>miprnacase33</t>
   </si>
   <si>
     <t>tomtesubject35</t>
@@ -3294,16 +3198,10 @@
     <t>tomtesample36</t>
   </si>
   <si>
-    <t>miprnacase34</t>
-  </si>
-  <si>
     <t>tomtesubject36</t>
   </si>
   <si>
     <t>tomtesample37</t>
-  </si>
-  <si>
-    <t>miprnacase35</t>
   </si>
   <si>
     <t>tomtesubject37</t>
@@ -3312,16 +3210,10 @@
     <t>tomtesample38</t>
   </si>
   <si>
-    <t>miprnacase36</t>
-  </si>
-  <si>
     <t>tomtesubject38</t>
   </si>
   <si>
     <t>tomtesample39</t>
-  </si>
-  <si>
-    <t>miprnacase37</t>
   </si>
   <si>
     <t>tomtesubject39</t>
@@ -3330,25 +3222,16 @@
     <t>tomtesample40</t>
   </si>
   <si>
-    <t>miprnacase38</t>
-  </si>
-  <si>
     <t>tomtesubject40</t>
   </si>
   <si>
     <t>tomtesample41</t>
   </si>
   <si>
-    <t>miprnacase39</t>
-  </si>
-  <si>
     <t>tomtesubject41</t>
   </si>
   <si>
     <t>tomtesample42</t>
-  </si>
-  <si>
-    <t>miprnacase40</t>
   </si>
   <si>
     <t>tomtesubject42</t>
@@ -3361,6 +3244,123 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>tomtecase2</t>
+  </si>
+  <si>
+    <t>tomtecase3</t>
+  </si>
+  <si>
+    <t>tomtecase4</t>
+  </si>
+  <si>
+    <t>tomtecase5</t>
+  </si>
+  <si>
+    <t>tomtecase6</t>
+  </si>
+  <si>
+    <t>tomtecase7</t>
+  </si>
+  <si>
+    <t>tomtecase8</t>
+  </si>
+  <si>
+    <t>tomtecase9</t>
+  </si>
+  <si>
+    <t>tomtecase10</t>
+  </si>
+  <si>
+    <t>tomtecase11</t>
+  </si>
+  <si>
+    <t>tomtecase12</t>
+  </si>
+  <si>
+    <t>tomtecase13</t>
+  </si>
+  <si>
+    <t>tomtecase14</t>
+  </si>
+  <si>
+    <t>tomtecase15</t>
+  </si>
+  <si>
+    <t>tomtecase16</t>
+  </si>
+  <si>
+    <t>tomtecase17</t>
+  </si>
+  <si>
+    <t>tomtecase18</t>
+  </si>
+  <si>
+    <t>tomtecase19</t>
+  </si>
+  <si>
+    <t>tomtecase20</t>
+  </si>
+  <si>
+    <t>tomtecase21</t>
+  </si>
+  <si>
+    <t>tomtecase22</t>
+  </si>
+  <si>
+    <t>tomtecase23</t>
+  </si>
+  <si>
+    <t>tomtecase24</t>
+  </si>
+  <si>
+    <t>tomtecase25</t>
+  </si>
+  <si>
+    <t>tomtecase26</t>
+  </si>
+  <si>
+    <t>tomtecase27</t>
+  </si>
+  <si>
+    <t>tomtecase28</t>
+  </si>
+  <si>
+    <t>tomtecase29</t>
+  </si>
+  <si>
+    <t>tomtecase30</t>
+  </si>
+  <si>
+    <t>tomtecase31</t>
+  </si>
+  <si>
+    <t>tomtecase32</t>
+  </si>
+  <si>
+    <t>tomtecase33</t>
+  </si>
+  <si>
+    <t>tomtecase34</t>
+  </si>
+  <si>
+    <t>tomtecase35</t>
+  </si>
+  <si>
+    <t>tomtecase36</t>
+  </si>
+  <si>
+    <t>tomtecase37</t>
+  </si>
+  <si>
+    <t>tomtecase38</t>
+  </si>
+  <si>
+    <t>tomtecase39</t>
+  </si>
+  <si>
+    <t>tomtecase40</t>
   </si>
 </sst>
 </file>
@@ -5424,8 +5424,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="71" t="s">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="Q15" s="86" t="s">
         <v>78</v>
@@ -13199,13 +13199,13 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="71" t="s">
-        <v>746</v>
+        <v>707</v>
       </c>
       <c r="AK15" s="89">
         <v>10</v>
       </c>
       <c r="AL15" s="71" t="s">
-        <v>747</v>
+        <v>708</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -16344,7 +16344,7 @@
         <v>522</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>216</v>
@@ -16368,7 +16368,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N18" s="85" t="s">
         <v>80</v>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>72</v>
@@ -17408,7 +17408,7 @@
         <v>522</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>494</v>
@@ -17432,7 +17432,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="113" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N19" s="85" t="s">
         <v>80</v>
@@ -18460,7 +18460,7 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="66" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>72</v>
@@ -18472,7 +18472,7 @@
         <v>522</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="F20" s="68" t="s">
         <v>616</v>
@@ -18496,7 +18496,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="113" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="N20" s="85" t="s">
         <v>80</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="66" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B21" s="67" t="s">
         <v>72</v>
@@ -19536,7 +19536,7 @@
         <v>522</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>216</v>
@@ -19560,7 +19560,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="113" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N21" s="85" t="s">
         <v>80</v>
@@ -20588,7 +20588,7 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="66" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B22" s="67" t="s">
         <v>72</v>
@@ -20600,7 +20600,7 @@
         <v>522</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="F22" s="68" t="s">
         <v>494</v>
@@ -20624,7 +20624,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="113" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="N22" s="85" t="s">
         <v>80</v>
@@ -21652,7 +21652,7 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="66" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B23" s="67" t="s">
         <v>72</v>
@@ -21664,7 +21664,7 @@
         <v>522</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="F23" s="68" t="s">
         <v>616</v>
@@ -21688,7 +21688,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="113" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="N23" s="85" t="s">
         <v>80</v>
@@ -22716,7 +22716,7 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="66" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B24" s="67" t="s">
         <v>72</v>
@@ -22728,7 +22728,7 @@
         <v>522</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>647</v>
+        <v>715</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>216</v>
@@ -22752,7 +22752,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="113" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="N24" s="85" t="s">
         <v>80</v>
@@ -23780,7 +23780,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="66" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B25" s="67" t="s">
         <v>72</v>
@@ -23792,7 +23792,7 @@
         <v>522</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>650</v>
+        <v>716</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>494</v>
@@ -23816,7 +23816,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="113" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="N25" s="85" t="s">
         <v>80</v>
@@ -24844,7 +24844,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>72</v>
@@ -24856,7 +24856,7 @@
         <v>522</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>616</v>
@@ -24880,7 +24880,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="113" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="N26" s="85" t="s">
         <v>80</v>
@@ -25908,7 +25908,7 @@
     </row>
     <row r="27" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>72</v>
@@ -25920,7 +25920,7 @@
         <v>522</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
       <c r="F27" s="68" t="s">
         <v>216</v>
@@ -25944,7 +25944,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="113" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="N27" s="85" t="s">
         <v>80</v>
@@ -25982,7 +25982,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="66" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>72</v>
@@ -25994,7 +25994,7 @@
         <v>522</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>494</v>
@@ -26018,7 +26018,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="113" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="N28" s="85" t="s">
         <v>80</v>
@@ -27046,7 +27046,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="66" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>72</v>
@@ -27058,7 +27058,7 @@
         <v>522</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>662</v>
+        <v>720</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>616</v>
@@ -27082,7 +27082,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="113" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="N29" s="85" t="s">
         <v>80</v>
@@ -28110,7 +28110,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="66" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>72</v>
@@ -28122,7 +28122,7 @@
         <v>522</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>665</v>
+        <v>721</v>
       </c>
       <c r="F30" s="68" t="s">
         <v>216</v>
@@ -28146,7 +28146,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="113" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="N30" s="85" t="s">
         <v>80</v>
@@ -29174,7 +29174,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="66" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B31" s="67" t="s">
         <v>72</v>
@@ -29186,7 +29186,7 @@
         <v>522</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>668</v>
+        <v>722</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>494</v>
@@ -29210,7 +29210,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="113" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="N31" s="85" t="s">
         <v>80</v>
@@ -30238,7 +30238,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="B32" s="67" t="s">
         <v>72</v>
@@ -30250,7 +30250,7 @@
         <v>522</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
       <c r="F32" s="68" t="s">
         <v>616</v>
@@ -30274,7 +30274,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="113" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="N32" s="85" t="s">
         <v>80</v>
@@ -31302,7 +31302,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="66" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="B33" s="67" t="s">
         <v>72</v>
@@ -31314,7 +31314,7 @@
         <v>522</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>216</v>
@@ -31338,7 +31338,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="113" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="N33" s="85" t="s">
         <v>80</v>
@@ -32366,7 +32366,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="66" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="B34" s="67" t="s">
         <v>72</v>
@@ -32378,7 +32378,7 @@
         <v>522</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>494</v>
@@ -32402,7 +32402,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="113" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="N34" s="85" t="s">
         <v>80</v>
@@ -33430,7 +33430,7 @@
     </row>
     <row r="35" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="66" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>72</v>
@@ -33442,7 +33442,7 @@
         <v>522</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>616</v>
@@ -33466,7 +33466,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="113" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="N35" s="85" t="s">
         <v>80</v>
@@ -34494,7 +34494,7 @@
     </row>
     <row r="36" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="66" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="B36" s="67" t="s">
         <v>72</v>
@@ -34506,7 +34506,7 @@
         <v>522</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>216</v>
@@ -34530,7 +34530,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="113" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="N36" s="85" t="s">
         <v>80</v>
@@ -34568,7 +34568,7 @@
     </row>
     <row r="37" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="66" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="B37" s="67" t="s">
         <v>72</v>
@@ -34580,7 +34580,7 @@
         <v>522</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>686</v>
+        <v>728</v>
       </c>
       <c r="F37" s="68" t="s">
         <v>494</v>
@@ -34604,7 +34604,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="113" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="N37" s="85" t="s">
         <v>80</v>
@@ -34642,7 +34642,7 @@
     </row>
     <row r="38" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="66" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>72</v>
@@ -34654,7 +34654,7 @@
         <v>522</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>616</v>
@@ -34678,7 +34678,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="113" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="N38" s="85" t="s">
         <v>80</v>
@@ -34716,7 +34716,7 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="B39" s="67" t="s">
         <v>72</v>
@@ -34728,7 +34728,7 @@
         <v>522</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>692</v>
+        <v>730</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>216</v>
@@ -34752,7 +34752,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="113" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
       <c r="N39" s="85" t="s">
         <v>80</v>
@@ -35780,7 +35780,7 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="66" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>72</v>
@@ -35792,7 +35792,7 @@
         <v>522</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>494</v>
@@ -35816,7 +35816,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="113" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="N40" s="85" t="s">
         <v>80</v>
@@ -36844,7 +36844,7 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="B41" s="67" t="s">
         <v>72</v>
@@ -36856,7 +36856,7 @@
         <v>522</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>616</v>
@@ -36880,7 +36880,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="113" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="N41" s="85" t="s">
         <v>80</v>
@@ -37908,7 +37908,7 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="66" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="B42" s="67" t="s">
         <v>72</v>
@@ -37920,7 +37920,7 @@
         <v>522</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>216</v>
@@ -37944,7 +37944,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="113" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="N42" s="85" t="s">
         <v>80</v>
@@ -38972,7 +38972,7 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="B43" s="67" t="s">
         <v>72</v>
@@ -38984,7 +38984,7 @@
         <v>522</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>494</v>
@@ -39008,7 +39008,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="113" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="N43" s="85" t="s">
         <v>80</v>
@@ -40036,7 +40036,7 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="B44" s="67" t="s">
         <v>72</v>
@@ -40048,7 +40048,7 @@
         <v>522</v>
       </c>
       <c r="E44" s="68" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="F44" s="68" t="s">
         <v>616</v>
@@ -40072,7 +40072,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="113" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="N44" s="85" t="s">
         <v>80</v>
@@ -41100,7 +41100,7 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66" t="s">
-        <v>709</v>
+        <v>682</v>
       </c>
       <c r="B45" s="67" t="s">
         <v>72</v>
@@ -41112,7 +41112,7 @@
         <v>522</v>
       </c>
       <c r="E45" s="68" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="F45" s="68" t="s">
         <v>216</v>
@@ -41136,7 +41136,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="113" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="N45" s="85" t="s">
         <v>80</v>
@@ -42164,7 +42164,7 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="66" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="B46" s="67" t="s">
         <v>72</v>
@@ -42176,7 +42176,7 @@
         <v>522</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="F46" s="68" t="s">
         <v>494</v>
@@ -42200,7 +42200,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="113" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
       <c r="N46" s="85" t="s">
         <v>80</v>
@@ -43228,7 +43228,7 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="66" t="s">
-        <v>715</v>
+        <v>686</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>72</v>
@@ -43240,7 +43240,7 @@
         <v>522</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="F47" s="68" t="s">
         <v>616</v>
@@ -43264,7 +43264,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="113" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="N47" s="85" t="s">
         <v>80</v>
@@ -44292,7 +44292,7 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="66" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="B48" s="67" t="s">
         <v>72</v>
@@ -44304,7 +44304,7 @@
         <v>522</v>
       </c>
       <c r="E48" s="68" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="F48" s="68" t="s">
         <v>216</v>
@@ -44328,7 +44328,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="113" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="N48" s="85" t="s">
         <v>80</v>
@@ -45356,7 +45356,7 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="66" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="B49" s="67" t="s">
         <v>72</v>
@@ -45368,7 +45368,7 @@
         <v>522</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="F49" s="68" t="s">
         <v>494</v>
@@ -45392,7 +45392,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="113" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="N49" s="85" t="s">
         <v>80</v>
@@ -46420,7 +46420,7 @@
     </row>
     <row r="50" spans="1:1028" s="79" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="78" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="B50" s="67" t="s">
         <v>72</v>
@@ -46432,7 +46432,7 @@
         <v>522</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="F50" s="68" t="s">
         <v>616</v>
@@ -46456,7 +46456,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="113" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="N50" s="85" t="s">
         <v>80</v>
@@ -46494,7 +46494,7 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="78" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="B51" s="67" t="s">
         <v>72</v>
@@ -46506,7 +46506,7 @@
         <v>522</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="F51" s="68" t="s">
         <v>216</v>
@@ -46530,7 +46530,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="113" t="s">
-        <v>729</v>
+        <v>695</v>
       </c>
       <c r="N51" s="85" t="s">
         <v>80</v>
@@ -47558,7 +47558,7 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="78" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>72</v>
@@ -47570,7 +47570,7 @@
         <v>522</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>494</v>
@@ -47594,7 +47594,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="113" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="N52" s="85" t="s">
         <v>80</v>
@@ -48622,7 +48622,7 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="78" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="B53" s="67" t="s">
         <v>72</v>
@@ -48634,7 +48634,7 @@
         <v>522</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="F53" s="68" t="s">
         <v>616</v>
@@ -48658,7 +48658,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="113" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="N53" s="85" t="s">
         <v>80</v>
@@ -49686,7 +49686,7 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="78" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="B54" s="67" t="s">
         <v>72</v>
@@ -49698,7 +49698,7 @@
         <v>522</v>
       </c>
       <c r="E54" s="68" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="F54" s="68" t="s">
         <v>216</v>
@@ -49722,7 +49722,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="113" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="N54" s="85" t="s">
         <v>80</v>
@@ -50750,7 +50750,7 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="78" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
       <c r="B55" s="67" t="s">
         <v>72</v>
@@ -50762,7 +50762,7 @@
         <v>522</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F55" s="68" t="s">
         <v>494</v>
@@ -50786,7 +50786,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="113" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
       <c r="N55" s="85" t="s">
         <v>80</v>
@@ -51814,7 +51814,7 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="78" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>72</v>
@@ -51826,7 +51826,7 @@
         <v>522</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F56" s="68" t="s">
         <v>616</v>
@@ -51850,7 +51850,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="113" t="s">
-        <v>744</v>
+        <v>705</v>
       </c>
       <c r="N56" s="85" t="s">
         <v>80</v>
@@ -72364,6 +72364,7 @@
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="AH9:AL9"/>
   </mergeCells>
+  <phoneticPr fontId="41" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O15:O394" xr:uid="{19465EDB-9F0A-D648-800B-EA415E10A078}">
       <formula1>#REF!</formula1>
